--- a/11/Before_Soc_EEH2.xlsx
+++ b/11/Before_Soc_EEH2.xlsx
@@ -17,12 +17,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+  <si>
+    <t>0</t>
+  </si>
   <si>
     <t>ГЗ</t>
   </si>
   <si>
     <t>ГЗ_end</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>Extr_end</t>
@@ -434,154 +470,157 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" t="n">
+      <c r="AX1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>6</v>
-      </c>
-      <c r="R1" t="n">
-        <v>7</v>
-      </c>
-      <c r="S1" t="n">
-        <v>7</v>
-      </c>
-      <c r="T1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V1" t="n">
-        <v>9</v>
-      </c>
-      <c r="W1" t="n">
-        <v>9</v>
-      </c>
-      <c r="X1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT1" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:50">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>0.07260183667366632</v>
@@ -730,7 +769,7 @@
     </row>
     <row r="3" spans="1:50">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
         <v>0.05379057288513169</v>
@@ -879,7 +918,7 @@
     </row>
     <row r="4" spans="1:50">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>0.1409506215989865</v>
@@ -1028,7 +1067,7 @@
     </row>
     <row r="5" spans="1:50">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
         <v>0.07487413280688478</v>
@@ -1177,7 +1216,7 @@
     </row>
     <row r="6" spans="1:50">
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
         <v>0.224413059466366</v>
@@ -1326,7 +1365,7 @@
     </row>
     <row r="7" spans="1:50">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>0.1426668316125334</v>
@@ -1475,7 +1514,7 @@
     </row>
     <row r="8" spans="1:50">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
         <v>0.07270694393770918</v>
@@ -1624,7 +1663,7 @@
     </row>
     <row r="9" spans="1:50">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
         <v>0.05584060135160593</v>
@@ -1773,7 +1812,7 @@
     </row>
     <row r="10" spans="1:50">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>0.05784492703141582</v>
@@ -1922,7 +1961,7 @@
     </row>
     <row r="11" spans="1:50">
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>0.05952478138579143</v>
@@ -2089,154 +2128,157 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" t="n">
+      <c r="AX1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>6</v>
-      </c>
-      <c r="R1" t="n">
-        <v>7</v>
-      </c>
-      <c r="S1" t="n">
-        <v>7</v>
-      </c>
-      <c r="T1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V1" t="n">
-        <v>9</v>
-      </c>
-      <c r="W1" t="n">
-        <v>9</v>
-      </c>
-      <c r="X1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT1" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:50">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>10.16851712135298</v>
@@ -2385,7 +2427,7 @@
     </row>
     <row r="3" spans="1:50">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
         <v>10.54057220355244</v>
@@ -2534,7 +2576,7 @@
     </row>
     <row r="4" spans="1:50">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>10.03051259261438</v>
@@ -2683,7 +2725,7 @@
     </row>
     <row r="5" spans="1:50">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
         <v>10.10557165776826</v>
@@ -2832,7 +2874,7 @@
     </row>
     <row r="6" spans="1:50">
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
         <v>9.293839039580387</v>
@@ -2981,7 +3023,7 @@
     </row>
     <row r="7" spans="1:50">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>9.855559062371398</v>
@@ -3130,7 +3172,7 @@
     </row>
     <row r="8" spans="1:50">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
         <v>10.42403084531497</v>
@@ -3279,7 +3321,7 @@
     </row>
     <row r="9" spans="1:50">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
         <v>10.35734129383539</v>
@@ -3428,7 +3470,7 @@
     </row>
     <row r="10" spans="1:50">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>10.54224723201141</v>
@@ -3577,7 +3619,7 @@
     </row>
     <row r="11" spans="1:50">
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>10.47773458251533</v>
@@ -3744,154 +3786,157 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" t="n">
+      <c r="AX1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>6</v>
-      </c>
-      <c r="R1" t="n">
-        <v>7</v>
-      </c>
-      <c r="S1" t="n">
-        <v>7</v>
-      </c>
-      <c r="T1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V1" t="n">
-        <v>9</v>
-      </c>
-      <c r="W1" t="n">
-        <v>9</v>
-      </c>
-      <c r="X1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT1" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:50">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>0.7391069511711121</v>
@@ -4040,7 +4085,7 @@
     </row>
     <row r="3" spans="1:50">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
         <v>0.6698579488749599</v>
@@ -4189,7 +4234,7 @@
     </row>
     <row r="4" spans="1:50">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>0.7011452211712705</v>
@@ -4338,7 +4383,7 @@
     </row>
     <row r="5" spans="1:50">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
         <v>0.6276169704279951</v>
@@ -4487,7 +4532,7 @@
     </row>
     <row r="6" spans="1:50">
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
         <v>0.70518336772763</v>
@@ -4636,7 +4681,7 @@
     </row>
     <row r="7" spans="1:50">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>0.7285232777127586</v>
@@ -4785,7 +4830,7 @@
     </row>
     <row r="8" spans="1:50">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
         <v>0.6505277503729369</v>
@@ -4934,7 +4979,7 @@
     </row>
     <row r="9" spans="1:50">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
         <v>0.6956710314447714</v>
@@ -5083,7 +5128,7 @@
     </row>
     <row r="10" spans="1:50">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>0.5992678208313396</v>
@@ -5232,7 +5277,7 @@
     </row>
     <row r="11" spans="1:50">
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>0.6083475515250946</v>

--- a/11/Before_Soc_EEH2.xlsx
+++ b/11/Before_Soc_EEH2.xlsx
@@ -17,12 +17,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+  <si>
+    <t>0</t>
+  </si>
   <si>
     <t>ГЗ</t>
   </si>
   <si>
     <t>ГЗ_end</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>Extr_end</t>
@@ -434,154 +470,157 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" t="n">
+      <c r="AX1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>6</v>
-      </c>
-      <c r="R1" t="n">
-        <v>7</v>
-      </c>
-      <c r="S1" t="n">
-        <v>7</v>
-      </c>
-      <c r="T1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V1" t="n">
-        <v>9</v>
-      </c>
-      <c r="W1" t="n">
-        <v>9</v>
-      </c>
-      <c r="X1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT1" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:50">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>0.07260183667366632</v>
@@ -730,7 +769,7 @@
     </row>
     <row r="3" spans="1:50">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
         <v>0.05379057288513169</v>
@@ -879,7 +918,7 @@
     </row>
     <row r="4" spans="1:50">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>0.1409506215989865</v>
@@ -1028,7 +1067,7 @@
     </row>
     <row r="5" spans="1:50">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
         <v>0.07487413280688478</v>
@@ -1177,7 +1216,7 @@
     </row>
     <row r="6" spans="1:50">
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
         <v>0.224413059466366</v>
@@ -1326,7 +1365,7 @@
     </row>
     <row r="7" spans="1:50">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>0.1426668316125334</v>
@@ -1475,7 +1514,7 @@
     </row>
     <row r="8" spans="1:50">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
         <v>0.07270694393770918</v>
@@ -1624,7 +1663,7 @@
     </row>
     <row r="9" spans="1:50">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
         <v>0.05584060135160593</v>
@@ -1773,7 +1812,7 @@
     </row>
     <row r="10" spans="1:50">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>0.05784492703141582</v>
@@ -1922,7 +1961,7 @@
     </row>
     <row r="11" spans="1:50">
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>0.05952478138579143</v>
@@ -2089,154 +2128,157 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" t="n">
+      <c r="AX1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>6</v>
-      </c>
-      <c r="R1" t="n">
-        <v>7</v>
-      </c>
-      <c r="S1" t="n">
-        <v>7</v>
-      </c>
-      <c r="T1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V1" t="n">
-        <v>9</v>
-      </c>
-      <c r="W1" t="n">
-        <v>9</v>
-      </c>
-      <c r="X1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT1" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:50">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>10.16851712135298</v>
@@ -2385,7 +2427,7 @@
     </row>
     <row r="3" spans="1:50">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
         <v>10.54057220355244</v>
@@ -2534,7 +2576,7 @@
     </row>
     <row r="4" spans="1:50">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>10.03051259261438</v>
@@ -2683,7 +2725,7 @@
     </row>
     <row r="5" spans="1:50">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
         <v>10.10557165776826</v>
@@ -2832,7 +2874,7 @@
     </row>
     <row r="6" spans="1:50">
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
         <v>9.293839039580387</v>
@@ -2981,7 +3023,7 @@
     </row>
     <row r="7" spans="1:50">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>9.855559062371398</v>
@@ -3130,7 +3172,7 @@
     </row>
     <row r="8" spans="1:50">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
         <v>10.42403084531497</v>
@@ -3279,7 +3321,7 @@
     </row>
     <row r="9" spans="1:50">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
         <v>10.35734129383539</v>
@@ -3428,7 +3470,7 @@
     </row>
     <row r="10" spans="1:50">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>10.54224723201141</v>
@@ -3577,7 +3619,7 @@
     </row>
     <row r="11" spans="1:50">
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>10.47773458251533</v>
@@ -3744,295 +3786,298 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" t="n">
+      <c r="AX1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>6</v>
-      </c>
-      <c r="R1" t="n">
-        <v>7</v>
-      </c>
-      <c r="S1" t="n">
-        <v>7</v>
-      </c>
-      <c r="T1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V1" t="n">
-        <v>9</v>
-      </c>
-      <c r="W1" t="n">
-        <v>9</v>
-      </c>
-      <c r="X1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT1" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:50">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7391069511711121</v>
+        <v>0.7391069511711127</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6438410862931681</v>
+        <v>0.6438410862931684</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7647474780738144</v>
+        <v>0.7647474780738133</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7466756011690742</v>
+        <v>0.7466756011690738</v>
       </c>
       <c r="G2" t="n">
         <v>0.7533413199911995</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7482236752132695</v>
+        <v>0.7482236752132694</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7474641078730392</v>
+        <v>0.7474641078730394</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7471327471964185</v>
+        <v>0.7471327471964195</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6953310917738895</v>
+        <v>0.69533109177389</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7583803333892475</v>
+        <v>0.7583803333892473</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7185967232397092</v>
+        <v>0.7185967232397091</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7100154445531391</v>
+        <v>0.7100154445531389</v>
       </c>
       <c r="O2" t="n">
         <v>0.7075437220850603</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6883463844147785</v>
+        <v>0.6883463844147784</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7130170275796234</v>
+        <v>0.7130170275796232</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6974613965468318</v>
+        <v>0.6974613965468311</v>
       </c>
       <c r="S2" t="n">
         <v>0.7499563273731412</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7248918292029379</v>
+        <v>0.7248918292029387</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6901854143147237</v>
+        <v>0.6901854143147231</v>
       </c>
       <c r="V2" t="n">
         <v>0.7439522530725206</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6891275594104114</v>
+        <v>0.6891275594104118</v>
       </c>
       <c r="X2" t="n">
         <v>0.7914192566928573</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7604956822928575</v>
+        <v>0.7604956822928579</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7863225142888216</v>
+        <v>0.7863225142888215</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.737377466405576</v>
+        <v>0.7373774664055757</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7391576658061049</v>
+        <v>0.7391576658061052</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.7203721549421936</v>
+        <v>0.7203721549421933</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.738773901424808</v>
+        <v>0.7387739014248081</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.7461070284767674</v>
+        <v>0.7461070284767676</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.7438596567277782</v>
+        <v>0.7438596567277784</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.7199081002676013</v>
+        <v>0.719908100267602</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.7112953663136207</v>
+        <v>0.71129536631362</v>
       </c>
       <c r="AI2" t="n">
         <v>0.6018855483152616</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.6680251661790449</v>
+        <v>0.6680251661790451</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.7235870713446834</v>
+        <v>0.7235870713446835</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.7226603838850902</v>
+        <v>0.7226603838850901</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.7389412160613814</v>
+        <v>0.7389412160613815</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.7396061603894521</v>
+        <v>0.7396061603894512</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.7089494500978228</v>
+        <v>0.7089494500978233</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.7491710619900532</v>
+        <v>0.7491710619900531</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.7388557804445351</v>
+        <v>0.7388557804445356</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.7246464387826063</v>
+        <v>0.7246464387826065</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.7344323365953397</v>
+        <v>0.7344323365953391</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.6903651059011041</v>
+        <v>0.6903651059011047</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.7395082627860622</v>
+        <v>0.7395082627860621</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.7300290220634269</v>
+        <v>0.7300290220634267</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.6165158062637928</v>
+        <v>0.6165158062637923</v>
       </c>
       <c r="AX2" t="n">
         <v>0.7566066365344348</v>
@@ -4040,210 +4085,210 @@
     </row>
     <row r="3" spans="1:50">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6698579488749599</v>
+        <v>0.6698579488749595</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6190256343843681</v>
+        <v>0.6190256343843685</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7527708711757427</v>
+        <v>0.7527708711757429</v>
       </c>
       <c r="F3" t="n">
-        <v>0.777672414139548</v>
+        <v>0.7776724141395479</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7566583506455087</v>
+        <v>0.7566583506455081</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7723042409974328</v>
+        <v>0.7723042409974323</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7310573804881808</v>
+        <v>0.7310573804881814</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7620319828877697</v>
+        <v>0.7620319828877695</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7535136782713132</v>
+        <v>0.753513678271313</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7281125589992079</v>
+        <v>0.7281125589992081</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7457632682745094</v>
+        <v>0.7457632682745096</v>
       </c>
       <c r="N3" t="n">
-        <v>0.739476202107026</v>
+        <v>0.7394762021070261</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7527326522378208</v>
+        <v>0.7527326522378205</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7654375995302962</v>
+        <v>0.7654375995302963</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7772466581773423</v>
+        <v>0.7772466581773424</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7698793143828809</v>
+        <v>0.7698793143828804</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7197799449647352</v>
+        <v>0.7197799449647355</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7835315442152858</v>
+        <v>0.7835315442152865</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7081438290351384</v>
+        <v>0.7081438290351382</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7261805566842418</v>
+        <v>0.7261805566842416</v>
       </c>
       <c r="W3" t="n">
         <v>0.770800819764824</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7764693392084759</v>
+        <v>0.7764693392084761</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7463077592177291</v>
+        <v>0.7463077592177295</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.7848193350842623</v>
+        <v>0.7848193350842617</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7059533019866482</v>
+        <v>0.7059533019866483</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6833678566340191</v>
+        <v>0.6833678566340189</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6821514002712709</v>
+        <v>0.6821514002712715</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.7431856583961484</v>
+        <v>0.7431856583961483</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.7663360579682029</v>
+        <v>0.7663360579682027</v>
       </c>
       <c r="AF3" t="n">
         <v>0.781544224975494</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.7561048047578383</v>
+        <v>0.7561048047578385</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.6970466840286633</v>
+        <v>0.6970466840286632</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.6742952884466764</v>
+        <v>0.6742952884466767</v>
       </c>
       <c r="AJ3" t="n">
         <v>0.7479630242723881</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.6967887277085857</v>
+        <v>0.6967887277085855</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.7270839543591626</v>
+        <v>0.7270839543591624</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.7598345514437854</v>
+        <v>0.7598345514437858</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.7741828276799718</v>
+        <v>0.7741828276799719</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.7426816212255922</v>
+        <v>0.7426816212255924</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.752832980671758</v>
+        <v>0.7528329806717585</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.7481651942694869</v>
+        <v>0.7481651942694871</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.7542856646627175</v>
+        <v>0.7542856646627182</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.7729138263340958</v>
+        <v>0.7729138263340948</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.7874327408416519</v>
+        <v>0.7874327408416524</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.7730025888277777</v>
+        <v>0.7730025888277774</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.6776542802288504</v>
+        <v>0.6776542802288508</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.7889508756057699</v>
+        <v>0.7889508756057702</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.7336705213583344</v>
+        <v>0.7336705213583345</v>
       </c>
     </row>
     <row r="4" spans="1:50">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7011452211712705</v>
+        <v>0.7011452211712712</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7172352026421359</v>
+        <v>0.717235202642136</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7899126577195457</v>
+        <v>0.7899126577195454</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7208412964985264</v>
+        <v>0.7208412964985261</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7097283403903769</v>
+        <v>0.709728340390377</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7094282038654958</v>
+        <v>0.7094282038654957</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7184694633821258</v>
+        <v>0.7184694633821259</v>
       </c>
       <c r="J4" t="n">
-        <v>0.707386913817785</v>
+        <v>0.7073869138177854</v>
       </c>
       <c r="K4" t="n">
-        <v>0.721404898774212</v>
+        <v>0.7214048987742122</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7700111989981966</v>
+        <v>0.770011198998197</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6571023897383428</v>
+        <v>0.6571023897383429</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7564729723880113</v>
+        <v>0.7564729723880114</v>
       </c>
       <c r="O4" t="n">
         <v>0.7263673707017453</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7160260683553691</v>
+        <v>0.7160260683553689</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6462627544368401</v>
+        <v>0.6462627544368404</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7697040093779668</v>
+        <v>0.769704009377967</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7423506346550975</v>
+        <v>0.7423506346550971</v>
       </c>
       <c r="T4" t="n">
-        <v>0.733167888694979</v>
+        <v>0.7331678886949792</v>
       </c>
       <c r="U4" t="n">
         <v>0.6533376635284226</v>
@@ -4252,37 +4297,37 @@
         <v>0.7479179435363402</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7334878124435225</v>
+        <v>0.7334878124435223</v>
       </c>
       <c r="X4" t="n">
-        <v>0.73004258653972</v>
+        <v>0.7300425865397202</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7147486212293637</v>
+        <v>0.7147486212293638</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7246887690128494</v>
+        <v>0.7246887690128497</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7065718922293069</v>
+        <v>0.7065718922293075</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6970063526307559</v>
+        <v>0.6970063526307558</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.7351260037483831</v>
+        <v>0.7351260037483824</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.7493334937386811</v>
+        <v>0.749333493738681</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.7224146609379296</v>
+        <v>0.7224146609379297</v>
       </c>
       <c r="AF4" t="n">
         <v>0.7696411943755435</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.7522335298867998</v>
+        <v>0.7522335298868003</v>
       </c>
       <c r="AH4" t="n">
         <v>0.7039857207317711</v>
@@ -4291,203 +4336,203 @@
         <v>0.7058035756373128</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.733019199700458</v>
+        <v>0.7330191997004584</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6796196729322699</v>
+        <v>0.6796196729322697</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.7127816095639236</v>
+        <v>0.7127816095639237</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.7217554834601608</v>
+        <v>0.7217554834601613</v>
       </c>
       <c r="AN4" t="n">
         <v>0.7698760454386728</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.6206660932985929</v>
+        <v>0.6206660932985933</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.6927852845387311</v>
+        <v>0.6927852845387308</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.6567259556275434</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.7318423852551008</v>
+        <v>0.7318423852551011</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.6816235848116551</v>
+        <v>0.6816235848116553</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.7313268067753113</v>
+        <v>0.7313268067753119</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.7530428533197117</v>
+        <v>0.7530428533197118</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.6751011206071375</v>
+        <v>0.6751011206071381</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.6684952139170013</v>
+        <v>0.6684952139170011</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.7512363244797818</v>
+        <v>0.7512363244797815</v>
       </c>
     </row>
     <row r="5" spans="1:50">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6276169704279951</v>
+        <v>0.6276169704279952</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6130885562007146</v>
+        <v>0.6130885562007149</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7661032180379073</v>
+        <v>0.7661032180379077</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7545592453194842</v>
+        <v>0.7545592453194839</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6065352650322819</v>
+        <v>0.6065352650322822</v>
       </c>
       <c r="H5" t="n">
         <v>0.6663763400847371</v>
       </c>
       <c r="I5" t="n">
-        <v>0.656690211591084</v>
+        <v>0.6566902115910841</v>
       </c>
       <c r="J5" t="n">
         <v>0.6182607583507819</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6251238483296692</v>
+        <v>0.6251238483296689</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7072519970706191</v>
+        <v>0.7072519970706189</v>
       </c>
       <c r="M5" t="n">
         <v>0.6501219964788254</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7373860884981421</v>
+        <v>0.737386088498142</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6751575189148714</v>
+        <v>0.6751575189148713</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7009185549543182</v>
+        <v>0.7009185549543183</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7077415522199141</v>
+        <v>0.707741552219914</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6704768342231077</v>
+        <v>0.6704768342231079</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7417067873921138</v>
+        <v>0.7417067873921137</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7886824464209603</v>
+        <v>0.7886824464209607</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6305051331435615</v>
+        <v>0.6305051331435617</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6167357392970956</v>
+        <v>0.6167357392970959</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7559809472702975</v>
+        <v>0.7559809472702976</v>
       </c>
       <c r="X5" t="n">
-        <v>0.6686836547640984</v>
+        <v>0.6686836547640981</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7682654798574073</v>
+        <v>0.7682654798574072</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6293261579452825</v>
+        <v>0.6293261579452822</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.6092113602406456</v>
+        <v>0.6092113602406455</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.6792601855142354</v>
+        <v>0.6792601855142353</v>
       </c>
       <c r="AC5" t="n">
         <v>0.6982489795021292</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.7762979504936526</v>
+        <v>0.7762979504936524</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.656483526565416</v>
+        <v>0.6564835265654156</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.7239014825598999</v>
+        <v>0.7239014825599003</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.7418170808757453</v>
+        <v>0.7418170808757456</v>
       </c>
       <c r="AH5" t="n">
         <v>0.73798410815209</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.6720725598673948</v>
+        <v>0.6720725598673944</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.583306887730613</v>
+        <v>0.5833068877306135</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.6341154619830184</v>
+        <v>0.6341154619830187</v>
       </c>
       <c r="AL5" t="n">
         <v>0.7362708705375693</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.716205226079083</v>
+        <v>0.7162052260790825</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.757834633885899</v>
+        <v>0.7578346338858996</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.6866813913355463</v>
+        <v>0.6866813913355465</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.7177193168989928</v>
+        <v>0.7177193168989937</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.7010297742654911</v>
+        <v>0.7010297742654914</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.6769137056374038</v>
+        <v>0.6769137056374034</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.7491340679300347</v>
+        <v>0.7491340679300343</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.701893833276409</v>
+        <v>0.7018938332764092</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.7434867753967725</v>
+        <v>0.7434867753967731</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.6678837445094509</v>
+        <v>0.6678837445094513</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.6112326431019255</v>
+        <v>0.6112326431019259</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.728019732702756</v>
+        <v>0.7280197327027561</v>
       </c>
     </row>
     <row r="6" spans="1:50">
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
         <v>0.70518336772763</v>
@@ -4502,16 +4547,16 @@
         <v>0.7470684385194475</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6668399535466644</v>
+        <v>0.6668399535466645</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7219315375802378</v>
+        <v>0.7219315375802381</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7227927480960774</v>
+        <v>0.7227927480960775</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7017567768272931</v>
+        <v>0.7017567768272932</v>
       </c>
       <c r="K6" t="n">
         <v>0.6992653037867184</v>
@@ -4520,28 +4565,28 @@
         <v>0.7148613123622278</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7049078686814336</v>
+        <v>0.7049078686814333</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7215752515816852</v>
+        <v>0.7215752515816857</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6868981485456624</v>
+        <v>0.6868981485456627</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6869514635590241</v>
+        <v>0.6869514635590243</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7044230458091836</v>
+        <v>0.7044230458091837</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7610781655188029</v>
+        <v>0.7610781655188026</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7403304317461755</v>
+        <v>0.7403304317461759</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7568019258894648</v>
+        <v>0.7568019258894646</v>
       </c>
       <c r="U6" t="n">
         <v>0.6791507611679792</v>
@@ -4553,123 +4598,123 @@
         <v>0.7446967386480042</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7354803887035551</v>
+        <v>0.7354803887035554</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7498239454833876</v>
+        <v>0.7498239454833877</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.81047892683775</v>
+        <v>0.8104789268377505</v>
       </c>
       <c r="AA6" t="n">
         <v>0.7167051664755192</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.7696149459188961</v>
+        <v>0.7696149459188962</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7167098851554117</v>
+        <v>0.716709885155412</v>
       </c>
       <c r="AD6" t="n">
         <v>0.7312252817586148</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.7695742099266355</v>
+        <v>0.7695742099266359</v>
       </c>
       <c r="AF6" t="n">
         <v>0.7390114990706466</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.7479160741725891</v>
+        <v>0.7479160741725884</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.7471220893968248</v>
+        <v>0.747122089396825</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.6553302138368993</v>
+        <v>0.6553302138368992</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.7396707800074103</v>
+        <v>0.7396707800074102</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.6992371123696368</v>
+        <v>0.6992371123696366</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.6999711556052448</v>
+        <v>0.699971155605245</v>
       </c>
       <c r="AM6" t="n">
         <v>0.6509868840624929</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.7476663971246577</v>
+        <v>0.7476663971246579</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.663716262439474</v>
+        <v>0.6637162624394748</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.7324874986849276</v>
+        <v>0.732487498684928</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.7510441352068493</v>
+        <v>0.7510441352068494</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.7556040112831861</v>
+        <v>0.7556040112831856</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.7606098982534742</v>
+        <v>0.7606098982534741</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.7344774765428935</v>
+        <v>0.734477476542894</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.7355827152342472</v>
+        <v>0.7355827152342481</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.7950926607183082</v>
+        <v>0.7950926607183085</v>
       </c>
       <c r="AW6" t="n">
         <v>0.7524450786215903</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.7570227941421817</v>
+        <v>0.7570227941421818</v>
       </c>
     </row>
     <row r="7" spans="1:50">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7285232777127586</v>
+        <v>0.7285232777127588</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6953330111175902</v>
+        <v>0.6953330111175903</v>
       </c>
       <c r="E7" t="n">
         <v>0.7955167978049101</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7877557724826179</v>
+        <v>0.7877557724826184</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7584272583603213</v>
+        <v>0.758427258360321</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7414440086642665</v>
+        <v>0.7414440086642663</v>
       </c>
       <c r="I7" t="n">
         <v>0.6892876192532381</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7852593244493143</v>
+        <v>0.7852593244493147</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7229670239797933</v>
+        <v>0.7229670239797937</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7136459928289069</v>
+        <v>0.7136459928289071</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7511391701102671</v>
+        <v>0.751139170110267</v>
       </c>
       <c r="N7" t="n">
         <v>0.7206340998457802</v>
@@ -4678,135 +4723,135 @@
         <v>0.648125313862271</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6774067562469087</v>
+        <v>0.677406756246908</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7058751457194069</v>
+        <v>0.7058751457194067</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7082766792536959</v>
+        <v>0.7082766792536958</v>
       </c>
       <c r="S7" t="n">
         <v>0.7463877888313893</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7340333446342283</v>
+        <v>0.7340333446342289</v>
       </c>
       <c r="U7" t="n">
         <v>0.7359922362935556</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7132919229682683</v>
+        <v>0.7132919229682679</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6981586453354285</v>
+        <v>0.6981586453354286</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7341441838860931</v>
+        <v>0.7341441838860929</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7323094425423963</v>
+        <v>0.7323094425423962</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.7481453591207339</v>
+        <v>0.7481453591207337</v>
       </c>
       <c r="AA7" t="n">
         <v>0.7822836494066193</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.6771868392956775</v>
+        <v>0.6771868392956772</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.7443466097981293</v>
+        <v>0.7443466097981295</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.7826310198574449</v>
+        <v>0.782631019857445</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.7296905088756241</v>
+        <v>0.7296905088756239</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.7439569767835179</v>
+        <v>0.7439569767835176</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.7271491440531789</v>
+        <v>0.727149144053179</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.6628326882396324</v>
+        <v>0.6628326882396322</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.690850187921257</v>
+        <v>0.6908501879212569</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.7460504342376802</v>
+        <v>0.7460504342376798</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.7378583477775497</v>
+        <v>0.73785834777755</v>
       </c>
       <c r="AL7" t="n">
         <v>0.6717744336111864</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.7370882559214587</v>
+        <v>0.7370882559214589</v>
       </c>
       <c r="AN7" t="n">
         <v>0.7303786336375706</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.7379986477832641</v>
+        <v>0.7379986477832646</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.7439220600131563</v>
+        <v>0.7439220600131562</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.7461768190897274</v>
+        <v>0.7461768190897275</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.7168382174561961</v>
+        <v>0.7168382174561958</v>
       </c>
       <c r="AS7" t="n">
         <v>0.7077681611288208</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.7750853807454331</v>
+        <v>0.7750853807454327</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.7545901231299101</v>
+        <v>0.7545901231299096</v>
       </c>
       <c r="AV7" t="n">
         <v>0.7556445435359429</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.7329649513333011</v>
+        <v>0.7329649513333008</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.7181957718238481</v>
+        <v>0.7181957718238479</v>
       </c>
     </row>
     <row r="8" spans="1:50">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6505277503729369</v>
+        <v>0.6505277503729363</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6470382432945136</v>
+        <v>0.6470382432945143</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7463720789510798</v>
+        <v>0.7463720789510795</v>
       </c>
       <c r="F8" t="n">
-        <v>0.739178094234235</v>
+        <v>0.7391780942342349</v>
       </c>
       <c r="G8" t="n">
         <v>0.798677980111502</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7972523920600284</v>
+        <v>0.7972523920600283</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7268000882726249</v>
+        <v>0.7268000882726251</v>
       </c>
       <c r="J8" t="n">
         <v>0.7208738104181286</v>
@@ -4815,70 +4860,70 @@
         <v>0.7252657770343726</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6764209100116758</v>
+        <v>0.6764209100116756</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7567783193040911</v>
+        <v>0.7567783193040907</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7458498118342721</v>
+        <v>0.745849811834273</v>
       </c>
       <c r="O8" t="n">
         <v>0.727157274721786</v>
       </c>
       <c r="P8" t="n">
-        <v>0.756086417188804</v>
+        <v>0.7560864171888033</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7574284519608706</v>
+        <v>0.7574284519608704</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7459819434765089</v>
+        <v>0.7459819434765097</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7140671437444785</v>
+        <v>0.7140671437444784</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7306270975579765</v>
+        <v>0.7306270975579769</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7406919043172056</v>
+        <v>0.7406919043172053</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7314897319715327</v>
+        <v>0.7314897319715329</v>
       </c>
       <c r="W8" t="n">
-        <v>0.7664834902577591</v>
+        <v>0.7664834902577594</v>
       </c>
       <c r="X8" t="n">
-        <v>0.7327417204958696</v>
+        <v>0.7327417204958697</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.7454881190825329</v>
+        <v>0.7454881190825324</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.7646225888567898</v>
+        <v>0.7646225888567901</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.7574880754186638</v>
+        <v>0.757488075418664</v>
       </c>
       <c r="AB8" t="n">
         <v>0.722014460919561</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.7487756163879757</v>
+        <v>0.748775616387976</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.7260329385905234</v>
+        <v>0.726032938590524</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.7570931678005931</v>
+        <v>0.7570931678005933</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.7766342345805305</v>
+        <v>0.7766342345805308</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.7786534118185851</v>
+        <v>0.7786534118185848</v>
       </c>
       <c r="AH8" t="n">
         <v>0.7526319992997813</v>
@@ -4887,126 +4932,126 @@
         <v>0.7443799907141996</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.7449202772517219</v>
+        <v>0.7449202772517223</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.754164110080937</v>
+        <v>0.7541641100809372</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.7689584928619414</v>
+        <v>0.768958492861941</v>
       </c>
       <c r="AM8" t="n">
         <v>0.6756292273623825</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.7316906557432042</v>
+        <v>0.7316906557432046</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.6892420351572286</v>
+        <v>0.6892420351572288</v>
       </c>
       <c r="AP8" t="n">
         <v>0.7784889796490931</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.7133443374172029</v>
+        <v>0.7133443374172034</v>
       </c>
       <c r="AR8" t="n">
         <v>0.6965356796213596</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.7328726717739337</v>
+        <v>0.7328726717739332</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.723825747444596</v>
+        <v>0.7238257474445966</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.6730401774594914</v>
+        <v>0.6730401774594912</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.7369750398502762</v>
+        <v>0.7369750398502765</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.5993041221849362</v>
+        <v>0.5993041221849364</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.7650089841787125</v>
+        <v>0.7650089841787128</v>
       </c>
     </row>
     <row r="9" spans="1:50">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6956710314447714</v>
+        <v>0.6956710314447712</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5758693909025525</v>
+        <v>0.5758693909025531</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7499305214676713</v>
+        <v>0.7499305214676719</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7021210522176681</v>
+        <v>0.7021210522176683</v>
       </c>
       <c r="G9" t="n">
         <v>0.6706173974058089</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6675986312167951</v>
+        <v>0.6675986312167955</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6853710793659398</v>
+        <v>0.6853710793659394</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7264928906487156</v>
+        <v>0.7264928906487159</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6505739081541395</v>
+        <v>0.6505739081541394</v>
       </c>
       <c r="L9" t="n">
-        <v>0.622843368939186</v>
+        <v>0.6228433689391862</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7363525326416237</v>
+        <v>0.7363525326416241</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7486127849421674</v>
+        <v>0.7486127849421677</v>
       </c>
       <c r="O9" t="n">
-        <v>0.697192866538546</v>
+        <v>0.6971928665385458</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7374491326938767</v>
+        <v>0.7374491326938764</v>
       </c>
       <c r="Q9" t="n">
         <v>0.614561632414964</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6445745625162214</v>
+        <v>0.6445745625162212</v>
       </c>
       <c r="S9" t="n">
         <v>0.6445944660774452</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6962077232320975</v>
+        <v>0.6962077232320971</v>
       </c>
       <c r="U9" t="n">
-        <v>0.6379087073658218</v>
+        <v>0.6379087073658216</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6894367585899416</v>
+        <v>0.6894367585899417</v>
       </c>
       <c r="W9" t="n">
-        <v>0.7423656048594148</v>
+        <v>0.7423656048594152</v>
       </c>
       <c r="X9" t="n">
-        <v>0.7648020001977549</v>
+        <v>0.7648020001977544</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.6780084202487902</v>
+        <v>0.6780084202487904</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.7016670939813122</v>
+        <v>0.7016670939813124</v>
       </c>
       <c r="AA9" t="n">
         <v>0.6884100013138104</v>
@@ -5018,16 +5063,16 @@
         <v>0.7714637953424095</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.7216116231597818</v>
+        <v>0.7216116231597821</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.7590255802419699</v>
+        <v>0.7590255802419701</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.7532687257182789</v>
+        <v>0.7532687257182795</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.7632481022486699</v>
+        <v>0.7632481022486705</v>
       </c>
       <c r="AH9" t="n">
         <v>0.7567459334623535</v>
@@ -5036,147 +5081,147 @@
         <v>0.6971919488827728</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.7321746082445608</v>
+        <v>0.7321746082445612</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.6704862104873375</v>
+        <v>0.6704862104873379</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.7360356504638653</v>
+        <v>0.7360356504638659</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.7402277021293413</v>
+        <v>0.7402277021293414</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.7545308029863224</v>
+        <v>0.7545308029863216</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.7192717907541675</v>
+        <v>0.7192717907541677</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.6852982220887803</v>
+        <v>0.685298222088781</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.7028539151198897</v>
+        <v>0.7028539151198893</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.7035629053348526</v>
+        <v>0.7035629053348531</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.7041696466497402</v>
+        <v>0.7041696466497397</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.7877558626933789</v>
+        <v>0.7877558626933788</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.7070601406261462</v>
+        <v>0.7070601406261452</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.7565865085720969</v>
+        <v>0.7565865085720977</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.6633805564550573</v>
+        <v>0.6633805564550567</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.7389502418257644</v>
+        <v>0.7389502418257643</v>
       </c>
     </row>
     <row r="10" spans="1:50">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5992678208313396</v>
+        <v>0.5992678208313388</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6268739040968947</v>
+        <v>0.6268739040968949</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7464419942675447</v>
+        <v>0.7464419942675445</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7677006458643821</v>
+        <v>0.7677006458643819</v>
       </c>
       <c r="G10" t="n">
         <v>0.6980634575921381</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7323508798729459</v>
+        <v>0.7323508798729464</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6763182318916103</v>
+        <v>0.6763182318916104</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6794163917896489</v>
+        <v>0.6794163917896493</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6720564070179124</v>
+        <v>0.6720564070179121</v>
       </c>
       <c r="L10" t="n">
         <v>0.7047842089475426</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7215687112792549</v>
+        <v>0.7215687112792545</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6357914644094582</v>
+        <v>0.635791464409458</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7167626734333848</v>
+        <v>0.7167626734333845</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7217833659782477</v>
+        <v>0.7217833659782481</v>
       </c>
       <c r="Q10" t="n">
         <v>0.6340944289850846</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6307129675758546</v>
+        <v>0.6307129675758545</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7370064982633844</v>
+        <v>0.7370064982633845</v>
       </c>
       <c r="T10" t="n">
         <v>0.723754677939626</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6993837703984978</v>
+        <v>0.6993837703984979</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7212942663826034</v>
+        <v>0.7212942663826033</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6814789495328692</v>
+        <v>0.6814789495328697</v>
       </c>
       <c r="X10" t="n">
-        <v>0.662440070703365</v>
+        <v>0.6624400707033655</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7109111304708297</v>
+        <v>0.7109111304708304</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.7252099425939943</v>
+        <v>0.7252099425939941</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.6677358263278615</v>
+        <v>0.6677358263278617</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.7203048658595745</v>
+        <v>0.7203048658595741</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.7950198476114415</v>
+        <v>0.7950198476114418</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.7799005656928024</v>
+        <v>0.7799005656928026</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.7527308396969145</v>
+        <v>0.7527308396969141</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.7081700094021823</v>
+        <v>0.7081700094021827</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.7065109523218505</v>
+        <v>0.7065109523218503</v>
       </c>
       <c r="AH10" t="n">
         <v>0.7541595555302574</v>
@@ -5185,120 +5230,120 @@
         <v>0.5933420517967487</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.6338043651693065</v>
+        <v>0.6338043651693062</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.6751919087769461</v>
+        <v>0.6751919087769462</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.642555612308375</v>
+        <v>0.6425556123083755</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.6961013109486612</v>
+        <v>0.6961013109486616</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.7793476716603841</v>
+        <v>0.7793476716603839</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.7325919624361851</v>
+        <v>0.7325919624361854</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.7859233002127376</v>
+        <v>0.7859233002127375</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.7715350227477278</v>
+        <v>0.771535022747728</v>
       </c>
       <c r="AR10" t="n">
         <v>0.7590344545466877</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.6801682881155741</v>
+        <v>0.6801682881155739</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.7476931381154497</v>
+        <v>0.7476931381154501</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.7710422576018896</v>
+        <v>0.7710422576018905</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.7425975096633687</v>
+        <v>0.7425975096633691</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.7436501145148491</v>
+        <v>0.7436501145148492</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.7411031940794643</v>
+        <v>0.7411031940794647</v>
       </c>
     </row>
     <row r="11" spans="1:50">
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6083475515250946</v>
+        <v>0.6083475515250945</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6391006316970645</v>
+        <v>0.6391006316970643</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7425702660518277</v>
+        <v>0.7425702660518274</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7406809721822711</v>
+        <v>0.7406809721822714</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6307979167428714</v>
+        <v>0.6307979167428719</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7496328658214967</v>
+        <v>0.7496328658214964</v>
       </c>
       <c r="I11" t="n">
-        <v>0.667593745148626</v>
+        <v>0.6675937451486257</v>
       </c>
       <c r="J11" t="n">
-        <v>0.675218547511113</v>
+        <v>0.6752185475111133</v>
       </c>
       <c r="K11" t="n">
         <v>0.652471216341682</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7475910301995056</v>
+        <v>0.7475910301995057</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7411944550191379</v>
+        <v>0.7411944550191376</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6981539111921229</v>
+        <v>0.6981539111921223</v>
       </c>
       <c r="O11" t="n">
         <v>0.7158172217596031</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7555934999372369</v>
+        <v>0.755593499937237</v>
       </c>
       <c r="Q11" t="n">
         <v>0.7108430517371171</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7244971534798407</v>
+        <v>0.7244971534798399</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6771961088313186</v>
+        <v>0.6771961088313188</v>
       </c>
       <c r="T11" t="n">
-        <v>0.7125121377557151</v>
+        <v>0.7125121377557156</v>
       </c>
       <c r="U11" t="n">
-        <v>0.6861034700000375</v>
+        <v>0.6861034700000376</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7899811432767841</v>
+        <v>0.789981143276784</v>
       </c>
       <c r="W11" t="n">
-        <v>0.7050704094049007</v>
+        <v>0.705070409404901</v>
       </c>
       <c r="X11" t="n">
-        <v>0.6690867339599837</v>
+        <v>0.6690867339599834</v>
       </c>
       <c r="Y11" t="n">
         <v>0.7097492742319716</v>
@@ -5307,52 +5352,52 @@
         <v>0.7644279440361744</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7181668849837725</v>
+        <v>0.7181668849837727</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.7959062195129127</v>
+        <v>0.7959062195129131</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.6982545237846349</v>
+        <v>0.6982545237846347</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.7226978060151654</v>
+        <v>0.7226978060151651</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.7543432199574256</v>
+        <v>0.7543432199574251</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.7347948331600272</v>
+        <v>0.7347948331600267</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.7505268274310231</v>
+        <v>0.7505268274310223</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.7719326686533337</v>
+        <v>0.7719326686533334</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.7644974893395234</v>
+        <v>0.764497489339523</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.7477518972625734</v>
+        <v>0.7477518972625729</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.772759379468733</v>
+        <v>0.7727593794687333</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.7378902810120528</v>
+        <v>0.7378902810120533</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.7552708488608451</v>
+        <v>0.7552708488608446</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.7667459600211546</v>
+        <v>0.7667459600211542</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.7889857025459162</v>
+        <v>0.7889857025459163</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.7189384916593753</v>
+        <v>0.7189384916593752</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.7308141713043969</v>
@@ -5361,22 +5406,22 @@
         <v>0.7178251231372597</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.6883825002473816</v>
+        <v>0.6883825002473819</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.7147812656711799</v>
+        <v>0.7147812656711804</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.7552525964692111</v>
+        <v>0.7552525964692104</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.7295533965040872</v>
+        <v>0.7295533965040871</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.7008390193184587</v>
+        <v>0.7008390193184578</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.7643265692366324</v>
+        <v>0.7643265692366319</v>
       </c>
     </row>
   </sheetData>
